--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2418538.966992077</v>
+        <v>2415975.277937216</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205914</v>
+        <v>9964927.035287933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431057</v>
+        <v>430763.7823717216</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9591273.301777331</v>
+        <v>9591418.341927968</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>288.6923155889716</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>67.00090002953</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>75.00805541854486</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>98.0920354687541</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.86740133315033</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0900949779775</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938662</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964032</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081888</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>102.1854574632516</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206819</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127575</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>103.1983720868894</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>176.1296726841126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -1898,7 +1898,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>148.5533506022767</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>2.762447262064999</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>172.5112693098274</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081974</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561458</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>94.32509593970119</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>83.07736723265377</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108366</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2533,7 +2533,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>7.729505493045209</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
-        <v>156.7876661506334</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>105.3798824585327</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>13.0692999247674</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>120.7505894011791</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
-        <v>38.03682829123536</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127578</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>103.1983720868921</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>153.9036548888877</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G38" t="n">
         <v>409.8432760127576</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>201.2260957599269</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G41" t="n">
         <v>409.8432760127576</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>1.749532638429823</v>
       </c>
       <c r="E43" t="n">
-        <v>81.37259901119292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428155</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>44.69180334097426</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>923.9266662611112</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>512.9407614715037</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>499.0173574100946</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2771830507352</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>167.2771830507352</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2134.371763268271</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>1765.409246327859</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>1407.143547721108</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>1021.355295122864</v>
+        <v>905.1298747452308</v>
       </c>
       <c r="F5" t="n">
-        <v>610.3693903332567</v>
+        <v>898.1843739960274</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>480.2205658942142</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>153.0258459302171</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224073</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>2520.971603332393</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4647,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.18278114677892</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>466.9472898999326</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5027,13 +5027,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I11" t="n">
         <v>93.84834815160703</v>
@@ -5048,43 +5048,43 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="L12" t="n">
-        <v>792.8215620441084</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="M12" t="n">
-        <v>1384.839916296236</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N12" t="n">
-        <v>2006.935879695572</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5176,19 +5176,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>326.1595320196932</v>
+        <v>391.8780811463358</v>
       </c>
       <c r="D13" t="n">
-        <v>326.1595320196932</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E13" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F13" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G13" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160703</v>
@@ -5264,7 +5264,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
@@ -5285,19 +5285,19 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5358,25 +5358,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>337.9118393841223</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953583</v>
+        <v>337.9118393841223</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.599035247486</v>
+        <v>929.9301936362499</v>
       </c>
       <c r="N15" t="n">
-        <v>1798.694998646822</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.571473647016</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>402.9352599385978</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D16" t="n">
-        <v>402.9352599385978</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.9352599385978</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385978</v>
+        <v>198.089128037354</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131766</v>
+        <v>198.089128037354</v>
       </c>
       <c r="H16" t="n">
         <v>93.84834815160703</v>
@@ -5470,16 +5470,16 @@
         <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
@@ -5528,13 +5528,13 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5546,19 +5546,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K18" t="n">
-        <v>274.0404001883707</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L18" t="n">
-        <v>764.7727330321219</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M18" t="n">
-        <v>1356.791087284249</v>
+        <v>915.089423558717</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284249</v>
+        <v>1537.185386958053</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>394.0188770611919</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D19" t="n">
-        <v>243.9022376488562</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E19" t="n">
-        <v>243.9022376488562</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F19" t="n">
-        <v>243.9022376488562</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G19" t="n">
         <v>93.84834815160703</v>
@@ -5695,28 +5695,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5759,19 +5759,19 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580352</v>
@@ -5832,25 +5832,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L21" t="n">
-        <v>584.5806809953583</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.599035247486</v>
+        <v>1016.375444967093</v>
       </c>
       <c r="N21" t="n">
-        <v>1798.694998646822</v>
+        <v>1638.471408366429</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.571473647016</v>
+        <v>2185.347883366624</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E22" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F22" t="n">
-        <v>402.9352599385978</v>
+        <v>179.2695845217828</v>
       </c>
       <c r="G22" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160724</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507196</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384009</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944175</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883211</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151122</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P23" t="n">
         <v>4202.751434297606</v>
@@ -6066,22 +6066,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034529</v>
+        <v>174.0929316102611</v>
       </c>
       <c r="K24" t="n">
-        <v>429.3821857744755</v>
+        <v>504.6016741736195</v>
       </c>
       <c r="L24" t="n">
-        <v>920.1145186182267</v>
+        <v>995.3340070173703</v>
       </c>
       <c r="M24" t="n">
-        <v>1512.132872870354</v>
+        <v>1587.352361269497</v>
       </c>
       <c r="N24" t="n">
-        <v>2134.22883626969</v>
+        <v>1587.352361269497</v>
       </c>
       <c r="O24" t="n">
-        <v>2134.22883626969</v>
+        <v>2134.228836269691</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>749.7802031534848</v>
       </c>
       <c r="C25" t="n">
-        <v>495.0957149476001</v>
+        <v>580.8440202255779</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9790755352643</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9790755352643</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9790755352643</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7648807098432</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117242</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948581</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946053</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782257</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033124</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747506</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062233</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1669.627968062233</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819387</v>
+        <v>1380.210798025272</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213699</v>
+        <v>1152.221247127255</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>931.4286679837245</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6303,28 +6303,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L27" t="n">
-        <v>562.2602880588616</v>
+        <v>960.0078027834553</v>
       </c>
       <c r="M27" t="n">
-        <v>1154.278642310989</v>
+        <v>1552.026157035584</v>
       </c>
       <c r="N27" t="n">
-        <v>1776.374605710325</v>
+        <v>1552.026157035584</v>
       </c>
       <c r="O27" t="n">
-        <v>2323.25108071052</v>
+        <v>2098.902632035779</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.25108071052</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>807.4326525856517</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C28" t="n">
-        <v>638.4964696577448</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D28" t="n">
-        <v>638.4964696577448</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E28" t="n">
-        <v>490.5833760753517</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="F28" t="n">
-        <v>343.6934285774414</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S28" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T28" t="n">
-        <v>2271.04111938556</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U28" t="n">
-        <v>1981.964905700286</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1727.280417494399</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.863247457439</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.873696559421</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y28" t="n">
-        <v>989.0811174158914</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6537,31 +6537,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5806809953583</v>
+        <v>729.4465287982083</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.599035247486</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>702.6869810358123</v>
       </c>
       <c r="C31" t="n">
-        <v>495.0957149476001</v>
+        <v>533.7507981079054</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319105</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6619,52 +6619,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>884.3354458660521</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127626</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.29847123401</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P32" t="n">
         <v>4202.751434297606</v>
@@ -6722,10 +6722,10 @@
         <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6771,34 +6771,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612973</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413353</v>
       </c>
       <c r="L33" t="n">
-        <v>915.089423558717</v>
+        <v>654.2270403990664</v>
       </c>
       <c r="M33" t="n">
-        <v>1507.107777810845</v>
+        <v>1246.245394651195</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.203741210181</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.203741210181</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.7042115721531</v>
+        <v>554.7738874534192</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7680286442462</v>
+        <v>385.8377045255123</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6513892319105</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7382956495174</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F34" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.991460657679</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.312678372061</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.236464686788</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.551976480901</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6923,34 +6923,34 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160681</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287892018</v>
+        <v>893.7741287891961</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294972</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.29847123401</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P35" t="n">
         <v>4202.751434297606</v>
@@ -6959,28 +6959,28 @@
         <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>142.6767696327857</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K36" t="n">
-        <v>142.6767696327857</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L36" t="n">
-        <v>142.6767696327857</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849133</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>1741.048401476413</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284444</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C37" t="n">
-        <v>930.4858260316502</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D37" t="n">
-        <v>780.3691866193144</v>
+        <v>344.979075535267</v>
       </c>
       <c r="E37" t="n">
-        <v>632.4560930369213</v>
+        <v>344.979075535267</v>
       </c>
       <c r="F37" t="n">
-        <v>485.566145539011</v>
+        <v>198.0891280373567</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S37" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T37" t="n">
-        <v>2429.412499335695</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.954262074192</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.269773868305</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.852603831344</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y37" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7163,61 +7163,61 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160681</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668117</v>
+        <v>424.3570907149664</v>
       </c>
       <c r="L39" t="n">
-        <v>572.0050724668117</v>
+        <v>915.0894235587184</v>
       </c>
       <c r="M39" t="n">
-        <v>1164.023426718939</v>
+        <v>915.0894235587184</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>1537.185386958055</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284444</v>
+        <v>2084.061861958251</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.25108071052</v>
+        <v>2503.645380384327</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476001</v>
+        <v>512.6296115053482</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="E40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="F40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G40" t="n">
-        <v>158.945337194272</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778398</v>
+        <v>694.2780763355879</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7403,58 +7403,58 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160681</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L42" t="n">
-        <v>584.5806809953583</v>
+        <v>689.553244632977</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.599035247486</v>
+        <v>1281.571598885105</v>
       </c>
       <c r="N42" t="n">
-        <v>1798.694998646822</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.571473647016</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D43" t="n">
-        <v>176.0428926073575</v>
+        <v>324.3923273344133</v>
       </c>
       <c r="E43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399038</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
+        <v>93.84834815160683</v>
+      </c>
+      <c r="I44" t="n">
         <v>93.84834815160704</v>
       </c>
-      <c r="I44" t="n">
-        <v>95.37264148556113</v>
-      </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436023</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118415</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459573</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612973</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160703</v>
+        <v>242.535362477976</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1739543673657</v>
+        <v>733.267695321728</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.552441993917</v>
+        <v>1325.286049573856</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.298433055173</v>
+        <v>1947.382012973193</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.20816329446</v>
+        <v>2494.258487973389</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437062</v>
+        <v>744.6035248193408</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9491029157994</v>
+        <v>575.6673418914339</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9491029157994</v>
+        <v>575.6673418914339</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9491029157994</v>
+        <v>427.7542483090408</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9491029157994</v>
+        <v>280.8643008111304</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7530036306793</v>
+        <v>280.8643008111304</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>138.9915838495608</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074694</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834095</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674452</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383437</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591202</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614143</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958341</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752454</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715493</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174761</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.533750673946</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>51.31264782909193</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>51.31264782909102</v>
+        <v>51.31264782909614</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>51.31264782908238</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>51.31264782908363</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>51.3126478290838</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>51.31264782908374</v>
       </c>
       <c r="R38" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>51.3126478290834</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>51.31264782908374</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>65.06136363537624</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>37.25561770506447</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440903</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>76.00797063971538</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537625</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>16.98870227489027</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>162.7796056151019</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>8.827219048631576</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>54.29037707851117</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.37662255930015</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>138.704457153524</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>60.69432831212845</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43.23559055967969</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>205.5153534273274</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>59.08139078075821</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>143.3016600672236</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.34368079027477</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>132.2817966595327</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>17.3585575921679</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>146.8659403797825</v>
       </c>
       <c r="E43" t="n">
-        <v>65.06136363537625</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194234</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>37.11277340343469</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811416.2074450925</v>
+        <v>811667.370057905</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>605012.2328389187</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="F2" t="n">
+        <v>605012.2328389189</v>
+      </c>
+      <c r="G2" t="n">
         <v>605012.2328389192</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605012.2328389189</v>
       </c>
       <c r="H2" t="n">
         <v>605012.2328389192</v>
@@ -26335,25 +26335,25 @@
         <v>605012.2328389192</v>
       </c>
       <c r="J2" t="n">
-        <v>605012.2328389187</v>
+        <v>605012.2328389197</v>
       </c>
       <c r="K2" t="n">
-        <v>605012.2328389188</v>
+        <v>605012.2328389196</v>
       </c>
       <c r="L2" t="n">
-        <v>605012.232838919</v>
+        <v>605012.2328389194</v>
       </c>
       <c r="M2" t="n">
-        <v>605012.2328389192</v>
+        <v>605012.2328389195</v>
       </c>
       <c r="N2" t="n">
-        <v>605012.2328389189</v>
+        <v>605012.2328389195</v>
       </c>
       <c r="O2" t="n">
-        <v>605012.2328389189</v>
+        <v>605012.2328389194</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605012.2328389194</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901372</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855149</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855162</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855165</v>
+        <v>5781.971894855164</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855127</v>
+        <v>5781.971894855129</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855116</v>
+        <v>5781.971894855187</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894854996</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855005</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855013</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855008</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855007</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855003</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855014</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
@@ -26491,25 +26491,25 @@
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258110.1358074732</v>
+        <v>-258110.1358074727</v>
       </c>
       <c r="C6" t="n">
-        <v>331857.743407072</v>
+        <v>331857.7434070715</v>
       </c>
       <c r="D6" t="n">
         <v>331857.7434070716</v>
       </c>
       <c r="E6" t="n">
-        <v>-438209.4439676871</v>
+        <v>-438245.3409495511</v>
       </c>
       <c r="F6" t="n">
-        <v>498300.2214868255</v>
+        <v>498264.324504961</v>
       </c>
       <c r="G6" t="n">
-        <v>498300.2214868253</v>
+        <v>498264.3245049612</v>
       </c>
       <c r="H6" t="n">
-        <v>498300.2214868255</v>
+        <v>498264.3245049612</v>
       </c>
       <c r="I6" t="n">
-        <v>498300.2214868255</v>
+        <v>498264.324504962</v>
       </c>
       <c r="J6" t="n">
-        <v>321877.0022942321</v>
+        <v>321841.105312367</v>
       </c>
       <c r="K6" t="n">
-        <v>498300.2214868251</v>
+        <v>498264.3245049617</v>
       </c>
       <c r="L6" t="n">
-        <v>498300.2214868254</v>
+        <v>498264.3245049615</v>
       </c>
       <c r="M6" t="n">
-        <v>373993.0100966883</v>
+        <v>373957.1131148243</v>
       </c>
       <c r="N6" t="n">
-        <v>498300.2214868253</v>
+        <v>498264.3245049616</v>
       </c>
       <c r="O6" t="n">
-        <v>498300.2214868253</v>
+        <v>498264.3245049615</v>
       </c>
       <c r="P6" t="n">
-        <v>492533.6140882111</v>
+        <v>498264.3245049615</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26756,28 +26756,28 @@
         <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>35.23045717538554</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>67.96472176280822</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>338.7761146022501</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.83928077610715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>130.3794197654775</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27822,16 +27822,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11.78595076373398</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082712</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263392</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.522685120334029e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.043320350748088e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>151.4800422544282</v>
       </c>
       <c r="L12" t="n">
-        <v>361.6013389488608</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504301</v>
@@ -31856,13 +31856,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>384.3702179971017</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504301</v>
@@ -32093,13 +32093,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>319.8536127488677</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>477.0972253459397</v>
       </c>
       <c r="P18" t="n">
         <v>557.7961431982453</v>
@@ -32336,7 +32336,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S18" t="n">
         <v>54.2575834086216</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>740.1323715504301</v>
@@ -32567,13 +32567,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>344.3187317059969</v>
+        <v>470.4777075105247</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S21" t="n">
         <v>54.2575834086216</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377421</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122277</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704057</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874061</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830424</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364255</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293299</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229599</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086944</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687517</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148601</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987159</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854256</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665717</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901936</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540903</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088188</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735818</v>
+        <v>207.892761473388</v>
       </c>
       <c r="K24" t="n">
-        <v>327.6251317733717</v>
+        <v>471.688653684822</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745719</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504294</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426198</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982449</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862155</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013752</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291841</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548565</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284919</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273331</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900883</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640615</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265019</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416871</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465959</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282421</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561742</v>
+        <v>205.064198356174</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851324</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704642</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L27" t="n">
-        <v>611.6977534235657</v>
+        <v>530.4763295946648</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>296.5366259989379</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
-        <v>313.3538858578419</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K32" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U32" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H33" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745724</v>
+        <v>220.5573447876833</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>329.981821051036</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>176.1592645264432</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>552.3532115551309</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>326.0565207351617</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>154.9724509320102</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>257.2899072204443</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>344.3187317059969</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N45" t="n">
-        <v>290.6810969936921</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>158.4467937663172</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -35015,10 +35015,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N11" t="n">
         <v>744.7323009263698</v>
@@ -35431,7 +35431,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>13.63860328006924</v>
       </c>
       <c r="L12" t="n">
-        <v>223.0469591689865</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284117</v>
@@ -35504,13 +35504,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N14" t="n">
         <v>744.7323009263698</v>
@@ -35668,7 +35668,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>246.5287790227428</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
@@ -35741,13 +35741,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P17" t="n">
         <v>553.8443926134828</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>182.0121737745087</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>334.5009809014953</v>
       </c>
       <c r="P18" t="n">
         <v>423.8217357839151</v>
@@ -35984,7 +35984,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>779.60008413115</v>
       </c>
       <c r="N20" t="n">
         <v>744.7323009263698</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136759</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284117</v>
@@ -36215,13 +36215,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>210.3443242916667</v>
+        <v>336.5033000961945</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607198</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380619</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664384</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020572</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554608</v>
+        <v>796.044948755465</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870076</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134821</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404106</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845838</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069151</v>
+        <v>81.05513480672131</v>
       </c>
       <c r="K24" t="n">
-        <v>189.7836927990127</v>
+        <v>333.847214710463</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946977</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>597.998337628411</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>552.4004797981754</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839146</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066035</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642055</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243777</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883424</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209157</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606356</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931356</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044797</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160918</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L27" t="n">
-        <v>473.1433736436916</v>
+        <v>391.9219498147906</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R29" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>157.9822462190637</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
-        <v>182.0121737745086</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
-        <v>677.09020389553</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311428</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946982</v>
+        <v>82.00296500780912</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>196.0074136367058</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L34" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671471</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>49.32163785977649</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>421.0114994717976</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812694955</v>
       </c>
       <c r="R38" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>194.7148086518283</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>14.99067684598865</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425671</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>118.7355274405701</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>418.5673812694955</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N45" t="n">
-        <v>159.3393849103587</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>24.47238635198697</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
